--- a/IPPU/A1_Outputs/A-O_AR_Projections_COMPLETED.xlsx
+++ b/IPPU/A1_Outputs/A-O_AR_Projections_COMPLETED.xlsx
@@ -3103,79 +3103,79 @@
         <v>0.6311</v>
       </c>
       <c r="G4">
-        <v>0.5901</v>
+        <v>0.5872000000000001</v>
       </c>
       <c r="H4">
-        <v>0.5543</v>
+        <v>0.549</v>
       </c>
       <c r="I4">
-        <v>0.5521</v>
+        <v>0.5444</v>
       </c>
       <c r="J4">
-        <v>0.55</v>
+        <v>0.5401</v>
       </c>
       <c r="K4">
-        <v>0.604</v>
+        <v>0.59</v>
       </c>
       <c r="L4">
-        <v>0.6746</v>
+        <v>0.6551</v>
       </c>
       <c r="M4">
-        <v>0.7256</v>
+        <v>0.7164</v>
       </c>
       <c r="N4">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="O4">
-        <v>0.7851</v>
+        <v>0.792</v>
       </c>
       <c r="P4">
-        <v>0.7987</v>
+        <v>0.8173</v>
       </c>
       <c r="Q4">
-        <v>0.7868000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="R4">
-        <v>0.7938</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="S4">
-        <v>0.7951</v>
+        <v>0.8177</v>
       </c>
       <c r="T4">
-        <v>0.7963</v>
+        <v>0.8205</v>
       </c>
       <c r="U4">
-        <v>0.7974</v>
+        <v>0.8226</v>
       </c>
       <c r="V4">
-        <v>0.7997</v>
+        <v>0.8188</v>
       </c>
       <c r="W4">
-        <v>0.8007</v>
+        <v>0.8149</v>
       </c>
       <c r="X4">
-        <v>0.8005</v>
+        <v>0.8109</v>
       </c>
       <c r="Y4">
-        <v>0.7992</v>
+        <v>0.8067</v>
       </c>
       <c r="Z4">
-        <v>0.797</v>
+        <v>0.8024</v>
       </c>
       <c r="AA4">
-        <v>0.8081</v>
+        <v>0.8038999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.8184</v>
+        <v>0.8052</v>
       </c>
       <c r="AC4">
-        <v>0.828</v>
+        <v>0.8065</v>
       </c>
       <c r="AD4">
-        <v>0.837</v>
+        <v>0.8077</v>
       </c>
       <c r="AE4">
-        <v>0.8455</v>
+        <v>0.8088</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -3293,79 +3293,79 @@
         <v>0.3689</v>
       </c>
       <c r="G6">
-        <v>0.4099</v>
+        <v>0.4128</v>
       </c>
       <c r="H6">
-        <v>0.4457</v>
+        <v>0.451</v>
       </c>
       <c r="I6">
-        <v>0.4479</v>
+        <v>0.4556</v>
       </c>
       <c r="J6">
-        <v>0.45</v>
+        <v>0.4599</v>
       </c>
       <c r="K6">
-        <v>0.396</v>
+        <v>0.41</v>
       </c>
       <c r="L6">
-        <v>0.3254</v>
+        <v>0.3449</v>
       </c>
       <c r="M6">
-        <v>0.2744</v>
+        <v>0.2836</v>
       </c>
       <c r="N6">
-        <v>0.224</v>
+        <v>0.223</v>
       </c>
       <c r="O6">
-        <v>0.2149</v>
+        <v>0.208</v>
       </c>
       <c r="P6">
-        <v>0.2013</v>
+        <v>0.1827</v>
       </c>
       <c r="Q6">
-        <v>0.2132</v>
+        <v>0.2003</v>
       </c>
       <c r="R6">
-        <v>0.2062</v>
+        <v>0.186</v>
       </c>
       <c r="S6">
-        <v>0.2049</v>
+        <v>0.1823</v>
       </c>
       <c r="T6">
-        <v>0.2037</v>
+        <v>0.1795</v>
       </c>
       <c r="U6">
-        <v>0.2026</v>
+        <v>0.1774</v>
       </c>
       <c r="V6">
-        <v>0.2003</v>
+        <v>0.1812</v>
       </c>
       <c r="W6">
-        <v>0.1993</v>
+        <v>0.1851</v>
       </c>
       <c r="X6">
-        <v>0.1995</v>
+        <v>0.1891</v>
       </c>
       <c r="Y6">
-        <v>0.2008</v>
+        <v>0.1933</v>
       </c>
       <c r="Z6">
-        <v>0.203</v>
+        <v>0.1976</v>
       </c>
       <c r="AA6">
-        <v>0.1919</v>
+        <v>0.1961</v>
       </c>
       <c r="AB6">
-        <v>0.1816</v>
+        <v>0.1948</v>
       </c>
       <c r="AC6">
-        <v>0.172</v>
+        <v>0.1935</v>
       </c>
       <c r="AD6">
-        <v>0.163</v>
+        <v>0.1923</v>
       </c>
       <c r="AE6">
-        <v>0.1545</v>
+        <v>0.1912</v>
       </c>
     </row>
   </sheetData>
@@ -7033,13 +7033,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83EEFC51-2C2B-4663-AC68-154BCD338892}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D2E7272-4660-44E0-9FA3-D48DB948133C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F090074-7B44-4410-B6D9-F55052E33E69}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83083D58-F905-42EB-88C5-F64FD8EA1CD3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C4269A-F77F-4434-BB23-E5F474F300D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3064D07F-3858-474A-A9B5-01E3A469DC87}"/>
 </file>